--- a/Base.xlsx
+++ b/Base.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Usuarios</t>
   </si>
@@ -75,21 +75,9 @@
     <t>Puntaje</t>
   </si>
   <si>
-    <t>Opciones</t>
-  </si>
-  <si>
     <t>OpcionCorrecta</t>
   </si>
   <si>
-    <t>OpcionesCorrecta</t>
-  </si>
-  <si>
-    <t>Opcion</t>
-  </si>
-  <si>
-    <t>OpcionesEmparejadas</t>
-  </si>
-  <si>
     <t>Numero Intentos tomados</t>
   </si>
   <si>
@@ -105,10 +93,40 @@
     <t>fechaTomo</t>
   </si>
   <si>
-    <t>RespouestaPregunta</t>
-  </si>
-  <si>
     <t>PuntajeObtenido</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>integer (minutos)</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Enum ( 5 Materias)</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Opcion1</t>
+  </si>
+  <si>
+    <t>Opcion2</t>
+  </si>
+  <si>
+    <t>Opcion3</t>
+  </si>
+  <si>
+    <t>float (porcentaje)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>RespuestaPregunta</t>
   </si>
 </sst>
 </file>
@@ -167,12 +185,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,13 +213,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>44585</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>93223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>693096</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>97277</xdr:rowOff>
@@ -238,13 +260,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>66642</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>130320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>715153</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>134374</xdr:rowOff>
@@ -285,151 +307,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>78673</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>122299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>727184</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>126353</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="4 Conector recto de flecha"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5252252" y="312799"/>
-          <a:ext cx="648511" cy="4054"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>357939</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>27071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>360947</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>20053</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="12 Conector recto de flecha"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4769518" y="1170071"/>
-          <a:ext cx="3008" cy="183482"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>225592</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>45118</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>225592</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>140368</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="15 Conector recto"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6391776" y="616618"/>
-          <a:ext cx="0" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>255600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>106412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>315058</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>73269</xdr:rowOff>
@@ -470,13 +354,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>410308</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>87923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>461596</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
@@ -517,16 +401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1304192</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1457739</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:rowOff>73270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>747346</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139214</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -535,8 +419,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3590192" y="3121269"/>
-          <a:ext cx="805962" cy="827945"/>
+          <a:off x="4356652" y="3121270"/>
+          <a:ext cx="2188520" cy="50969"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -564,13 +448,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>652096</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>161192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>747346</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>139212</xdr:rowOff>
@@ -899,153 +783,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5"/>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="6"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="6"/>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F17" s="1"/>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>28</v>
+      <c r="F23" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Usuarios</t>
   </si>
@@ -127,6 +127,21 @@
   </si>
   <si>
     <t>RespuestaPregunta</t>
+  </si>
+  <si>
+    <t>Programacion</t>
+  </si>
+  <si>
+    <t>Calidad de Software</t>
+  </si>
+  <si>
+    <t>Aplicafciones Web</t>
+  </si>
+  <si>
+    <t>Desarrollo de Software</t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
   </si>
 </sst>
 </file>
@@ -785,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,6 +944,9 @@
       <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="4" t="s">
@@ -936,6 +954,24 @@
       </c>
       <c r="F10" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
